--- a/信用卡片回饋特色/中信卡片回饋特色.xlsx
+++ b/信用卡片回饋特色/中信卡片回饋特色.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8b62ba60823c0ee/桌面/信用卡片回饋特色/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\信用卡片回饋特色\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{894846BC-74D4-4295-AA06-9E7D89A79DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99E29EB5-1E6F-489B-BE27-719021CFBA9F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06BFD53-88C6-4AE6-B728-62B2AA7E3F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F23BDBE-B7B3-4B50-902D-45224B334D5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F23BDBE-B7B3-4B50-902D-45224B334D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -212,382 +212,383 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>･ 時尚族、行動族、旅遊族、居家族享 3倍紅利</t>
+  </si>
+  <si>
+    <t>･ 時尚族、行動族、旅遊族、居家族享 3倍紅利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信紅利晶緻卡</t>
+  </si>
+  <si>
+    <t>中信現金回饋御璽卡</t>
+  </si>
+  <si>
+    <t>･ 一般消費 0.5%回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 國內月消費滿額，海外消費最高享2.5%回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信現金回饋鈦金卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 天天2倍紅利回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信紅利卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寰遊美國運通卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 保險消費 1.68%現金回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 量販超市、餐廳消費 1%現金回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 其他產業及國外消費 0.6%現金回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPlan卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 當月帳單消費金額自動分3期0利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 不限國內外保險公司，保險消費自動分6期0利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super Life VISA卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 量販超市、保險、餐廳刷卡消費 1％現金回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 其他產業刷卡消費 0.3％現金回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANA聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ ANA極緻卡 / ANA無限卡：一般消費NT25元=1哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ ANA晶緻卡/商務御璽卡：一般消費NT30元=1哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ ANA白金卡/御璽卡：一般消費NT40元=1哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信兄弟聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 鼎極卡：國內一般消費3倍 / 海外一般消費5倍點數回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 御璽/鈦金卡：餐飲、運動休閒消費最高3倍點數回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 白金卡：餐飲、運動休閒消費最高3倍點數回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 不限卡別：全台影城、中信兄弟門票/商品消費最高5倍回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大中華攜手飛聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 無限卡：人民幣NT11元:1哩、其他外幣NT12元:1哩、台灣NT22元:1哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 商務御璽卡：人民幣NT11元:1哩、其他外幣NT15元:1哩、台灣NT23元:1哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 御璽卡：人民幣NT23元:1哩、其他外幣NT25元:1哩、台灣NT30元:1哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEXUS聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 國內消費累積紅利點數3倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 海外、指定中油直營站與加盟站、LEXUS據點消費累積紅利點數5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信商務卡/雙幣商務卡</t>
+  </si>
+  <si>
+    <t>･ 國外消費 2.88%現金回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家扶公益卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 將回饋0.5%刷卡金額，由持卡人捐給家扶基金會的『兒童關懷基金』</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中華電信聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 電信紅利點：消費每NT30元可累積1點電信紅利點數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ Hami Point：一般消費 1%回饋、指定消費 2%回饋、定期代扣繳中華電信費 3%回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢神百貨聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 漢神鼎極無限卡：國內消費紅利點數3倍回饋、海外消費紅利點數5倍回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 漢神鼎極世界卡：國內消費 0.8%現金回饋、海外消費 1.2%現金回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 漢神御璽卡：館內消費3倍/館外1~3倍紅利回饋 、海外消費3倍紅利回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 漢神晶緻卡：館內消費3倍/館外1~3倍紅利回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 漢神鈦金卡：國內消費不分級距享0.5%回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global Mall聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 無限卡：國內消費3倍、海外消費5倍點數回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 御璽卡：館內、時尚產業族群及海外消費3倍點數回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 白金卡：消費每NT30元累積紅利點數一點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀泰聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 晶緻卡：館內、時尚產業族群及海外消費3倍點數回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大葉髙島屋百貨聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 大葉髙島屋鼎極無限卡：館內外消費紅利點數回饋3倍；海外消費紅利點數回饋5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 大葉髙島屋鼎極世界卡：館內外消費 0.8％現金回饋；海外消費 1.2％現金回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 大葉髙島屋鈦金卡：國內消費 0.5%現金回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 大葉髙島屋白金卡：消費每NT30元累積紅利點數一點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 大葉髙島屋御璽卡/晶緻卡：館內消費、國內時尚族產業、海外消費3倍紅利點數回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南紡購物中心聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 南紡鼎極無限卡：館內外消費紅利點數回饋3倍；海外消費紅利點數回饋5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 南紡御璽卡：館內消費、國內時尚族產業、海外消費3倍紅利點數回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤美天地聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 勤美天地晶緻卡/御璽卡：3倍紅利點數回饋，每刷卡消費NT30元累積3點紅利點數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 勤美天地白金卡：每刷卡消費NT30元累積1點紅利點數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 刷卡每滿NT100元可累積MUJI Dollar 5點(等同現金5元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUJI無印良品聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 提撥0.5%回饋金，轉捐紙風車文教基金會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紙風車認同卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷玩卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 中油直營及加盟站：紅利點數回饋3倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 5大電信資費繳付：紅利點數回饋4倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 指定網路購物：紅利點數回饋5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 生日當月指定網購：紅利點數回饋10倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 提撥消費金額的千分之5(限慈濟御璽/慈濟鈦金卡)，協助慈濟基金會在各處所做的緊急救助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈濟卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 提撥0.4%回饋金，轉捐東吳大學作為校務各項活動使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東吳大學認同卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學學認同卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 白金卡：提撥國內外3‰回饋金，轉捐學學文化創意基金會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 御璽卡：提撥國內5‰/國外8‰回饋金，轉捐學學文化創意基金會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 鼎極無限卡：提撥國內5‰/國外1‰回饋金，轉捐學學文化創意基金會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商旅卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 商旅御璽卡：族群內的指定消費可享3倍紅利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 商旅鈦金卡：每月新增消費享現金回饋0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一企業認同卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期紅利卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 分期消費享點數3倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 一般消費OPEN POINT 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 海外消費OPEN POINT 2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 指定統一關係企業或指定行動支付消費OPEN POINT最高 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>享想生活卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>･ 紅利回饋最高10倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回饋資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>中信紅利御璽卡</t>
-  </si>
-  <si>
-    <t>･ 時尚族、行動族、旅遊族、居家族享 3倍紅利</t>
-  </si>
-  <si>
-    <t>･ 時尚族、行動族、旅遊族、居家族享 3倍紅利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信紅利晶緻卡</t>
-  </si>
-  <si>
-    <t>中信現金回饋御璽卡</t>
-  </si>
-  <si>
-    <t>･ 一般消費 0.5%回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 國內月消費滿額，海外消費最高享2.5%回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信現金回饋鈦金卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 天天2倍紅利回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信紅利卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寰遊美國運通卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 保險消費 1.68%現金回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 量販超市、餐廳消費 1%現金回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 其他產業及國外消費 0.6%現金回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPlan卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 當月帳單消費金額自動分3期0利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 不限國內外保險公司，保險消費自動分6期0利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Super Life VISA卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 量販超市、保險、餐廳刷卡消費 1％現金回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 其他產業刷卡消費 0.3％現金回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANA聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ ANA極緻卡 / ANA無限卡：一般消費NT25元=1哩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ ANA晶緻卡/商務御璽卡：一般消費NT30元=1哩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ ANA白金卡/御璽卡：一般消費NT40元=1哩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信兄弟聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 鼎極卡：國內一般消費3倍 / 海外一般消費5倍點數回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 御璽/鈦金卡：餐飲、運動休閒消費最高3倍點數回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 白金卡：餐飲、運動休閒消費最高3倍點數回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 不限卡別：全台影城、中信兄弟門票/商品消費最高5倍回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大中華攜手飛聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 無限卡：人民幣NT11元:1哩、其他外幣NT12元:1哩、台灣NT22元:1哩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 商務御璽卡：人民幣NT11元:1哩、其他外幣NT15元:1哩、台灣NT23元:1哩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 御璽卡：人民幣NT23元:1哩、其他外幣NT25元:1哩、台灣NT30元:1哩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEXUS聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 國內消費累積紅利點數3倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 海外、指定中油直營站與加盟站、LEXUS據點消費累積紅利點數5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信商務卡/雙幣商務卡</t>
-  </si>
-  <si>
-    <t>･ 國外消費 2.88%現金回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家扶公益卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 將回饋0.5%刷卡金額，由持卡人捐給家扶基金會的『兒童關懷基金』</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中華電信聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 電信紅利點：消費每NT30元可累積1點電信紅利點數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ Hami Point：一般消費 1%回饋、指定消費 2%回饋、定期代扣繳中華電信費 3%回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漢神百貨聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 漢神鼎極無限卡：國內消費紅利點數3倍回饋、海外消費紅利點數5倍回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 漢神鼎極世界卡：國內消費 0.8%現金回饋、海外消費 1.2%現金回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 漢神御璽卡：館內消費3倍/館外1~3倍紅利回饋 、海外消費3倍紅利回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 漢神晶緻卡：館內消費3倍/館外1~3倍紅利回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 漢神鈦金卡：國內消費不分級距享0.5%回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global Mall聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 無限卡：國內消費3倍、海外消費5倍點數回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 御璽卡：館內、時尚產業族群及海外消費3倍點數回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 白金卡：消費每NT30元累積紅利點數一點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秀泰聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 晶緻卡：館內、時尚產業族群及海外消費3倍點數回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大葉髙島屋百貨聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 大葉髙島屋鼎極無限卡：館內外消費紅利點數回饋3倍；海外消費紅利點數回饋5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 大葉髙島屋鼎極世界卡：館內外消費 0.8％現金回饋；海外消費 1.2％現金回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 大葉髙島屋鈦金卡：國內消費 0.5%現金回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 大葉髙島屋白金卡：消費每NT30元累積紅利點數一點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 大葉髙島屋御璽卡/晶緻卡：館內消費、國內時尚族產業、海外消費3倍紅利點數回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南紡購物中心聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 南紡鼎極無限卡：館內外消費紅利點數回饋3倍；海外消費紅利點數回饋5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 南紡御璽卡：館內消費、國內時尚族產業、海外消費3倍紅利點數回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勤美天地聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 勤美天地晶緻卡/御璽卡：3倍紅利點數回饋，每刷卡消費NT30元累積3點紅利點數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 勤美天地白金卡：每刷卡消費NT30元累積1點紅利點數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 刷卡每滿NT100元可累積MUJI Dollar 5點(等同現金5元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUJI無印良品聯名卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 提撥0.5%回饋金，轉捐紙風車文教基金會</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紙風車認同卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷玩卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 中油直營及加盟站：紅利點數回饋3倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 5大電信資費繳付：紅利點數回饋4倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 指定網路購物：紅利點數回饋5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 生日當月指定網購：紅利點數回饋10倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 提撥消費金額的千分之5(限慈濟御璽/慈濟鈦金卡)，協助慈濟基金會在各處所做的緊急救助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慈濟卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 提撥0.4%回饋金，轉捐東吳大學作為校務各項活動使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東吳大學認同卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學學認同卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 白金卡：提撥國內外3‰回饋金，轉捐學學文化創意基金會</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 御璽卡：提撥國內5‰/國外8‰回饋金，轉捐學學文化創意基金會</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 鼎極無限卡：提撥國內5‰/國外1‰回饋金，轉捐學學文化創意基金會</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商旅卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 商旅御璽卡：族群內的指定消費可享3倍紅利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 商旅鈦金卡：每月新增消費享現金回饋0.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>統一企業認同卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分期紅利卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 分期消費享點數3倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 一般消費OPEN POINT 1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 海外消費OPEN POINT 2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 指定統一關係企業或指定行動支付消費OPEN POINT最高 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>享想生活卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>･ 紅利回饋最高10倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回饋資訊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,25 +988,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E782FA-4180-41BA-BFF4-4023D99B0AE9}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
     <col min="2" max="2" width="113" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1013,17 +1014,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1031,12 +1032,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1044,17 +1045,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1062,17 +1063,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1080,17 +1081,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1098,17 +1099,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1116,12 +1117,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1129,22 +1130,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1152,12 +1153,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1165,12 +1166,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1186,437 +1187,437 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>66</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>70</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>73</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>75</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>77</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>80</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B66" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>86</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B68" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>90</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>92</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>98</v>
       </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B78" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>101</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B80" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" t="s">
         <v>105</v>
       </c>
-      <c r="B81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>107</v>
       </c>
-      <c r="B82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>108</v>
       </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B84" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B85" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B86" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" t="s">
         <v>114</v>
       </c>
-      <c r="B87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>116</v>
       </c>
-      <c r="B88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
         <v>117</v>
       </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B90" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B91" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>121</v>
       </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>124</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B96" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B97" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>130</v>
-      </c>
-      <c r="B98" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
